--- a/plots/data/results.xlsx
+++ b/plots/data/results.xlsx
@@ -990,7 +990,7 @@
   <dimension ref="A1:AN1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
